--- a/因子任务/十个因子/十个+二个因子.xlsx
+++ b/因子任务/十个因子/十个+二个因子.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>Formula</t>
   </si>
@@ -109,165 +109,179 @@
     <t>-1*Corr(Standardize(volume),Standardize((Ts_Mean(close_adj,{})+Ts_Mean(close_adj,{})+Ts_Mean(close_adj,{}))/3),{})</t>
   </si>
   <si>
+    <t>-1*Sma(Ts_Mean(turnover_ratio,{}),{},1)</t>
+  </si>
+  <si>
+    <t>{'传媒': 0.05, '商业贸易': 0.06, '建筑材料': 0.05, '房地产': 0.05, '有色金属': 0.08, '电子': 0.07, '综合': 0.08, '计算机': 0.05, '轻工制造': 0.05, '采掘': 0.07, '钢铁': 0.07, '非银金融': 0.06}</t>
+  </si>
+  <si>
+    <t>{'传媒': 0.05, '国防军工': 0.11, '建筑材料': 0.07, '房地产': 0.05, '汽车': 0.05, '纺织服装': 0.06, '轻工制造': 0.07, '钢铁': 0.06}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.08, '休闲服务': 0.07, '传媒': 0.1, '公用事业': 0.05, '化工': 0.06, '商业贸易': 0.1, '国防军工': 0.05, '建筑材料': 0.08, '建筑装饰': 0.08, '房地产': 0.07, '有色金属': 0.08, '机械设备': 0.06, '电子': 0.06, '计算机': 0.07, '轻工制造': 0.11, '通信': 0.07, '钢铁': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.09, '公用事业': 0.08, '农林牧渔': 0.05, '化工': 0.05, '商业贸易': 0.06, '建筑材料': 0.09, '建筑装饰': 0.06, '房地产': 0.09, '机械设备': 0.08, '汽车': 0.06, '纺织服装': 0.06, '轻工制造': 0.08, '采掘': 0.06, '钢铁': 0.11, '食品饮料': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.06, '休闲服务': 0.1, '传媒': 0.06, '公用事业': 0.08, '农林牧渔': 0.06, '化工': 0.06, '医药生物': 0.07, '商业贸易': 0.06, '国防军工': 0.06, '家用电器': 0.07, '建筑材料': 0.07, '建筑装饰': 0.06, '房地产': 0.08, '机械设备': 0.07, '汽车': 0.1, '电子': 0.06, '电气设备': 0.07, '轻工制造': 0.07, '通信': 0.07, '采掘': 0.05, '钢铁': 0.05, '食品饮料': 0.12}</t>
+  </si>
+  <si>
+    <t>{'休闲服务': 0.08, '传媒': 0.05, '农林牧渔': 0.06, '化工': 0.05, '商业贸易': 0.05, '国防军工': 0.05, '汽车': 0.05, '电气设备': 0.06, '计算机': 0.05, '轻工制造': 0.05, '采掘': 0.07, '食品饮料': 0.05}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.05, '公用事业': 0.06, '农林牧渔': 0.06, '国防军工': 0.06, '家用电器': 0.07, '建筑材料': 0.06, '房地产': 0.06, '有色金属': 0.05, '机械设备': 0.05, '汽车': 0.06, '电气设备': 0.05, '轻工制造': 0.06, '通信': 0.05, '采掘': 0.05, '食品饮料': 0.06}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.05, '传媒': 0.05, '农林牧渔': 0.06, '医药生物': 0.06, '国防军工': 0.08, '建筑材料': 0.06, '有色金属': 0.05, '汽车': 0.07, '电气设备': 0.05, '纺织服装': 0.05, '轻工制造': 0.06}</t>
+  </si>
+  <si>
+    <t>{'农林牧渔': 0.06, '国防军工': 0.08, '机械设备': 0.06, '电气设备': 0.05, '综合': 0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.05, '休闲服务': 0.08, '传媒': 0.06, '农林牧渔': 0.05, '化工': 0.07, '医药生物': 0.05, '商业贸易': 0.07, '建筑材料': 0.05, '电气设备': 0.05, '轻工制造': 0.07, '通信': 0.05, '采掘': 0.08, '银行': 0.06}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.09, '休闲服务': 0.3, '公用事业': 0.05, '农林牧渔': 0.14, '化工': 0.07, '医药生物': 0.13, '家用电器': 0.3, '建筑材料': 0.13, '建筑装饰': 0.1, '房地产': 0.15, '汽车': 0.15, '电子': 0.07, '电气设备': 0.13, '纺织服装': 0.12, '轻工制造': 0.08, '通信': 0.14, '采掘': 0.05, '钢铁': 0.09, '食品饮料': 0.21}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.11, '休闲服务': 0.16, '传媒': 0.08, '公用事业': 0.08, '农林牧渔': 0.15, '化工': 0.07, '医药生物': 0.12, '商业贸易': 0.09, '家用电器': 0.15, '建筑材料': 0.09, '建筑装饰': 0.11, '房地产': 0.1, '有色金属': 0.08, '机械设备': 0.1, '汽车': 0.12, '电子': 0.07, '电气设备': 0.05, '纺织服装': 0.05, '计算机': 0.08, '轻工制造': 0.08, '采掘': 0.11, '钢铁': 0.11, '非银金融': 0.11, '食品饮料': 0.16}</t>
+  </si>
+  <si>
+    <t>sw1</t>
+  </si>
+  <si>
+    <t>['close_adj', 'low_adj', 'high_adj']</t>
+  </si>
+  <si>
+    <t>['close_adj']</t>
+  </si>
+  <si>
+    <t>['high_adj', 'low_adj']</t>
+  </si>
+  <si>
+    <t>['open_adj', 'high_adj']</t>
+  </si>
+  <si>
+    <t>['close_adj', 'volume']</t>
+  </si>
+  <si>
+    <t>['close_adj', 'volume', 'open_adj']</t>
+  </si>
+  <si>
+    <t>['close_adj', 'volume', 'low_adj']</t>
+  </si>
+  <si>
+    <t>['ebitps']</t>
+  </si>
+  <si>
+    <t>['turnover_ratio']</t>
+  </si>
+  <si>
+    <t>一天的收盘价与最高价的差的绝对值与最高价与最低价的差值的20天的相关系数</t>
+  </si>
+  <si>
+    <t>收盘价减去10日移动平均的收盘价除以10日移动平均的收盘价乘100然后取相反数</t>
+  </si>
+  <si>
+    <t>最高价减去前20天的最低价加上最高价减最低价的和除以2，然后取相反数</t>
+  </si>
+  <si>
+    <t>最低价减去开盘价N取10的指数移动平均减去最高价减去开盘价N取10的指数移动平均的差值除以开盘价</t>
+  </si>
+  <si>
+    <t>标准化的成交量和标准化的收盘价的5日相关系数取相反数</t>
+  </si>
+  <si>
+    <t>排序后的收盘价和排序后的成交量的5日的相关系数加上排序后的开盘价和排序后的成交量的5日的相关系数之后的和，进行排序然后再除以2，取平均数，然后取相反数</t>
+  </si>
+  <si>
+    <t>收盘价减去最低价与前五日最低价的最大值的排序乘上成交量五日平均和收盘价五日平均的五日相关系数的排序，然后取相反数</t>
+  </si>
+  <si>
+    <t>平均股价的2日平均的排序值与最高价减去最低价除以2的2日平均的排序值的8日相关系数，然后取相反数</t>
+  </si>
+  <si>
+    <t>标准化的成交量与标准化的收盘价的1日2日3日的移动平均的和除以3的10天的相关系数</t>
+  </si>
+  <si>
+    <t>5、10、15季度的每股息税前利润的平均值的和除以3</t>
+  </si>
+  <si>
+    <t>三日的移动平均换手率的20日简单移动平均的值取相反数</t>
+  </si>
+  <si>
+    <t>ZZ800</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[10, 10]</t>
+  </si>
+  <si>
+    <t>[20, 2, 20, 2]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[5, 5]</t>
+  </si>
+  <si>
+    <t>[5, 5, 5, 5]</t>
+  </si>
+  <si>
+    <t>[2, 2, 8]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 10]</t>
+  </si>
+  <si>
+    <t>[5, 10, 15]</t>
+  </si>
+  <si>
+    <t>[3, 20]</t>
+  </si>
+  <si>
+    <t>价量类</t>
+  </si>
+  <si>
+    <t>成长类</t>
+  </si>
+  <si>
+    <t>情绪类</t>
+  </si>
+  <si>
     <t>(Ts_Mean(TTM(ebitps),{})+Ts_Mean(TTM(ebitps),{})+Ts_Mean(TTM(ebitps),{}))/3</t>
-  </si>
-  <si>
-    <t>-1*Sma(Ts_Mean(turnover_ratio,{}),{},1)</t>
-  </si>
-  <si>
-    <t>{'传媒': 0.05, '商业贸易': 0.06, '建筑材料': 0.05, '房地产': 0.05, '有色金属': 0.08, '电子': 0.07, '综合': 0.08, '计算机': 0.05, '轻工制造': 0.05, '采掘': 0.07, '钢铁': 0.07, '非银金融': 0.06}</t>
-  </si>
-  <si>
-    <t>{'传媒': 0.05, '国防军工': 0.11, '建筑材料': 0.07, '房地产': 0.05, '汽车': 0.05, '纺织服装': 0.06, '轻工制造': 0.07, '钢铁': 0.06}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.08, '休闲服务': 0.07, '传媒': 0.1, '公用事业': 0.05, '化工': 0.06, '商业贸易': 0.1, '国防军工': 0.05, '建筑材料': 0.08, '建筑装饰': 0.08, '房地产': 0.07, '有色金属': 0.08, '机械设备': 0.06, '电子': 0.06, '计算机': 0.07, '轻工制造': 0.11, '通信': 0.07, '钢铁': 0.05}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.09, '公用事业': 0.08, '农林牧渔': 0.05, '化工': 0.05, '商业贸易': 0.06, '建筑材料': 0.09, '建筑装饰': 0.06, '房地产': 0.09, '机械设备': 0.08, '汽车': 0.06, '纺织服装': 0.06, '轻工制造': 0.08, '采掘': 0.06, '钢铁': 0.11, '食品饮料': 0.05}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.06, '休闲服务': 0.1, '传媒': 0.06, '公用事业': 0.08, '农林牧渔': 0.06, '化工': 0.06, '医药生物': 0.07, '商业贸易': 0.06, '国防军工': 0.06, '家用电器': 0.07, '建筑材料': 0.07, '建筑装饰': 0.06, '房地产': 0.08, '机械设备': 0.07, '汽车': 0.1, '电子': 0.06, '电气设备': 0.07, '轻工制造': 0.07, '通信': 0.07, '采掘': 0.05, '钢铁': 0.05, '食品饮料': 0.12}</t>
-  </si>
-  <si>
-    <t>{'休闲服务': 0.08, '传媒': 0.05, '农林牧渔': 0.06, '化工': 0.05, '商业贸易': 0.05, '国防军工': 0.05, '汽车': 0.05, '电气设备': 0.06, '计算机': 0.05, '轻工制造': 0.05, '采掘': 0.07, '食品饮料': 0.05}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.05, '公用事业': 0.06, '农林牧渔': 0.06, '国防军工': 0.06, '家用电器': 0.07, '建筑材料': 0.06, '房地产': 0.06, '有色金属': 0.05, '机械设备': 0.05, '汽车': 0.06, '电气设备': 0.05, '轻工制造': 0.06, '通信': 0.05, '采掘': 0.05, '食品饮料': 0.06}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.05, '传媒': 0.05, '农林牧渔': 0.06, '医药生物': 0.06, '国防军工': 0.08, '建筑材料': 0.06, '有色金属': 0.05, '汽车': 0.07, '电气设备': 0.05, '纺织服装': 0.05, '轻工制造': 0.06}</t>
-  </si>
-  <si>
-    <t>{'农林牧渔': 0.06, '国防军工': 0.08, '机械设备': 0.06, '电气设备': 0.05, '综合': 0.08}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.05, '休闲服务': 0.08, '传媒': 0.06, '农林牧渔': 0.05, '化工': 0.07, '医药生物': 0.05, '商业贸易': 0.07, '建筑材料': 0.05, '电气设备': 0.05, '轻工制造': 0.07, '通信': 0.05, '采掘': 0.08, '银行': 0.06}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.09, '休闲服务': 0.3, '公用事业': 0.05, '农林牧渔': 0.14, '化工': 0.07, '医药生物': 0.13, '家用电器': 0.3, '建筑材料': 0.13, '建筑装饰': 0.1, '房地产': 0.15, '汽车': 0.15, '电子': 0.07, '电气设备': 0.13, '纺织服装': 0.12, '轻工制造': 0.08, '通信': 0.14, '采掘': 0.05, '钢铁': 0.09, '食品饮料': 0.21}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.11, '休闲服务': 0.16, '传媒': 0.08, '公用事业': 0.08, '农林牧渔': 0.15, '化工': 0.07, '医药生物': 0.12, '商业贸易': 0.09, '家用电器': 0.15, '建筑材料': 0.09, '建筑装饰': 0.11, '房地产': 0.1, '有色金属': 0.08, '机械设备': 0.1, '汽车': 0.12, '电子': 0.07, '电气设备': 0.05, '纺织服装': 0.05, '计算机': 0.08, '轻工制造': 0.08, '采掘': 0.11, '钢铁': 0.11, '非银金融': 0.11, '食品饮料': 0.16}</t>
-  </si>
-  <si>
-    <t>sw1</t>
-  </si>
-  <si>
-    <t>['close_adj', 'low_adj', 'high_adj']</t>
-  </si>
-  <si>
-    <t>['close_adj']</t>
-  </si>
-  <si>
-    <t>['high_adj', 'low_adj']</t>
-  </si>
-  <si>
-    <t>['open_adj', 'high_adj']</t>
-  </si>
-  <si>
-    <t>['close_adj', 'volume']</t>
-  </si>
-  <si>
-    <t>['close_adj', 'volume', 'open_adj']</t>
-  </si>
-  <si>
-    <t>['close_adj', 'volume', 'low_adj']</t>
-  </si>
-  <si>
-    <t>['ebitps']</t>
-  </si>
-  <si>
-    <t>['turnover_ratio']</t>
-  </si>
-  <si>
-    <t>一天的收盘价与最高价的差的绝对值与最高价与最低价的差值的20天的相关系数</t>
-  </si>
-  <si>
-    <t>收盘价减去10日移动平均的收盘价除以10日移动平均的收盘价乘100然后取相反数</t>
-  </si>
-  <si>
-    <t>最高价减去前20天的最低价加上最高价减最低价的和除以2，然后取相反数</t>
-  </si>
-  <si>
-    <t>最低价减去开盘价N取10的指数移动平均减去最高价减去开盘价N取10的指数移动平均的差值除以开盘价</t>
-  </si>
-  <si>
-    <t>最高价减去20天前的最低价加上最高价减去当天的最低价的和除以2然后取相反数</t>
-  </si>
-  <si>
-    <t>标准化的成交量和标准化的收盘价的5日相关系数取相反数</t>
-  </si>
-  <si>
-    <t>排序后的收盘价和排序后的成交量的5日的相关系数加上排序后的开盘价和排序后的成交量的5日的相关系数之后的和，进行排序然后再除以2，取平均数，然后取相反数</t>
-  </si>
-  <si>
-    <t>收盘价减去最低价与前五日最低价的最大值的排序乘上成交量五日平均和收盘价五日平均的五日相关系数的排序，然后取相反数</t>
-  </si>
-  <si>
-    <t>平均股价的2日平均的排序值与最高价减去最低价除以2的2日平均的排序值的8日相关系数，然后取相反数</t>
-  </si>
-  <si>
-    <t>标准化的成交量与标准化的收盘价的1日2日3日的移动平均的和除以3的10天的相关系数</t>
-  </si>
-  <si>
-    <t>5、10、15季度的每股息税前利润的平均值的和除以3</t>
-  </si>
-  <si>
-    <t>三日的移动平均换手率的20日简单移动平均的值取相反数</t>
-  </si>
-  <si>
-    <t>ZZ800</t>
-  </si>
-  <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>[10, 10]</t>
-  </si>
-  <si>
-    <t>[20, 2, 20, 2]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[5, 5]</t>
-  </si>
-  <si>
-    <t>[5, 5, 5, 5]</t>
-  </si>
-  <si>
-    <t>[2, 2, 8]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 10]</t>
-  </si>
-  <si>
-    <t>[5, 10, 15]</t>
-  </si>
-  <si>
-    <t>[3, 20]</t>
-  </si>
-  <si>
-    <t>价量类</t>
-  </si>
-  <si>
-    <t>成长类</t>
-  </si>
-  <si>
-    <t>情绪类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['volume', 'close_adj']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1*Covariance(Rank(volume),Rank(close_adj),{})</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交的排列与收盘价的排列取10天的协方差再取相反数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -275,8 +289,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -315,22 +336,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,6 +459,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -438,6 +494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -660,34 +719,34 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0.04</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -695,34 +754,34 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>0.04</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,34 +789,34 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>0.03</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -765,69 +824,69 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0.05</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>0.04</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -835,34 +894,34 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>0.04</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -870,34 +929,34 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>0.04</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -905,34 +964,34 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>0.04</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -940,34 +999,34 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>0.03</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -975,104 +1034,106 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>0.04</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>0.04</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="D13">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>